--- a/SallyJameson/1b) ItosDelightSolutions.xlsx
+++ b/SallyJameson/1b) ItosDelightSolutions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sashwat/Desktop/BUFN401/SallyJameson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB18C607-05C5-2E41-A1DD-FC0F8A17FD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B764EEC1-21CF-1F4A-B6AF-A2CC8F25577D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31060" yWindow="-6840" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MSFT Stock Data" sheetId="9" r:id="rId1"/>
@@ -3668,8 +3668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDFA497F-57CA-4825-A19A-7858923042FD}">
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J67" sqref="J67"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -8490,6 +8490,77 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Document_x0020_Type xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">Supplemental File</Document_x0020_Type>
+    <Edit_x0020_Type xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">SWAT/Truncated</Edit_x0020_Type>
+    <Faculty_x0020_Sponsor_x002a_ xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">
+      <UserInfo>
+        <DisplayName>Allayannis, Yiorgos</DisplayName>
+        <AccountId>21</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </Faculty_x0020_Sponsor_x002a_>
+    <Subject_x0020_Area xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">Finance</Subject_x0020_Area>
+    <Approver_x002a_ xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">
+      <UserInfo>
+        <DisplayName>Allayannis, Yiorgos</DisplayName>
+        <AccountId>21</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </Approver_x002a_>
+    <SWAT xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">false</SWAT>
+    <Dashboard_x002a_ xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">
+      <Url>http://cm3.darden.virginia.edu/CMO/WorkflowDashboard.aspx?wf=2225</Url>
+      <Description>Workflow Dashboard</Description>
+    </Dashboard_x002a_>
+    <_Status xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Metadata_x0020_Form_x0020_URL_x002a_ xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">
+      <Url>http://cm3.darden.virginia.edu/CMO/Editing%20Metadata/DispFormMeta.aspx?ID=2607</Url>
+      <Description>View Document Metadata</Description>
+    </Metadata_x0020_Form_x0020_URL_x002a_>
+    <Admin_x0020_Assistant xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">
+      <UserInfo>
+        <DisplayName>Schmidle, Cheryl</DisplayName>
+        <AccountId>341</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </Admin_x0020_Assistant>
+    <DBP_x0020_Editor_x002a_ xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">
+      <UserInfo>
+        <DisplayName>Stevenson, Donald</DisplayName>
+        <AccountId>19</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </DBP_x0020_Editor_x002a_>
+    <Editing_x0020_Status xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">Metadata Review Complete</Editing_x0020_Status>
+    <Metadata_x0020_Link_x0020_ID xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">{7BD58D8E-0244-4C41-958B-04C3EE98D365}</Metadata_x0020_Link_x0020_ID>
+    <_x0032_nd_x0020_Editor_x002a_ xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </_x0032_nd_x0020_Editor_x002a_>
+    <New_x0020_or_x0020_Revision_x003f_ xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">New</New_x0020_or_x0020_Revision_x003f_>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058A7093D962BB241994BF196712ACDBF" ma:contentTypeVersion="116" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="94f27c16fa41e7de953d1f72a0f4e207">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ec868678-deb6-48cf-896b-119bf5e2249b" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v3/fields" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="238ee7dead0546dd0b2410521d9b3eb8" ns2:_="" ns3:_="">
     <xsd:import namespace="ec868678-deb6-48cf-896b-119bf5e2249b"/>
@@ -8789,96 +8860,23 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Document_x0020_Type xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">Supplemental File</Document_x0020_Type>
-    <Edit_x0020_Type xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">SWAT/Truncated</Edit_x0020_Type>
-    <Faculty_x0020_Sponsor_x002a_ xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">
-      <UserInfo>
-        <DisplayName>Allayannis, Yiorgos</DisplayName>
-        <AccountId>21</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </Faculty_x0020_Sponsor_x002a_>
-    <Subject_x0020_Area xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">Finance</Subject_x0020_Area>
-    <Approver_x002a_ xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">
-      <UserInfo>
-        <DisplayName>Allayannis, Yiorgos</DisplayName>
-        <AccountId>21</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </Approver_x002a_>
-    <SWAT xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">false</SWAT>
-    <Dashboard_x002a_ xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">
-      <Url>http://cm3.darden.virginia.edu/CMO/WorkflowDashboard.aspx?wf=2225</Url>
-      <Description>Workflow Dashboard</Description>
-    </Dashboard_x002a_>
-    <_Status xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Metadata_x0020_Form_x0020_URL_x002a_ xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">
-      <Url>http://cm3.darden.virginia.edu/CMO/Editing%20Metadata/DispFormMeta.aspx?ID=2607</Url>
-      <Description>View Document Metadata</Description>
-    </Metadata_x0020_Form_x0020_URL_x002a_>
-    <Admin_x0020_Assistant xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">
-      <UserInfo>
-        <DisplayName>Schmidle, Cheryl</DisplayName>
-        <AccountId>341</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </Admin_x0020_Assistant>
-    <DBP_x0020_Editor_x002a_ xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">
-      <UserInfo>
-        <DisplayName>Stevenson, Donald</DisplayName>
-        <AccountId>19</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </DBP_x0020_Editor_x002a_>
-    <Editing_x0020_Status xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">Metadata Review Complete</Editing_x0020_Status>
-    <Metadata_x0020_Link_x0020_ID xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">{7BD58D8E-0244-4C41-958B-04C3EE98D365}</Metadata_x0020_Link_x0020_ID>
-    <_x0032_nd_x0020_Editor_x002a_ xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </_x0032_nd_x0020_Editor_x002a_>
-    <New_x0020_or_x0020_Revision_x003f_ xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">New</New_x0020_or_x0020_Revision_x003f_>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A1F6DD7-746A-4512-B390-FA899221FCBB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78A510AA-B23F-4C91-8701-C064719A3757}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ec868678-deb6-48cf-896b-119bf5e2249b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34785B2D-3AD8-451F-BC5E-71F0CAE9BB3C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55F4BF06-F0C8-4E68-8866-9BB77F134D56}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -8895,18 +8893,20 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34785B2D-3AD8-451F-BC5E-71F0CAE9BB3C}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A1F6DD7-746A-4512-B390-FA899221FCBB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78A510AA-B23F-4C91-8701-C064719A3757}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ec868678-deb6-48cf-896b-119bf5e2249b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>